--- a/energy/Heating_Wires/סיכום/calcul.xlsx
+++ b/energy/Heating_Wires/סיכום/calcul.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natou\Documents\GitHub\Museum_of_Science\Heating Wires\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nathans\Desktop\Museum_of_Science\energy\Heating_Wires\סיכום\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D21B3B6-23FD-418C-AD2F-DCB1C2ADAF57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA3DF7E-AFF8-4ACC-BCEC-EC4BF1ABC7B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Is [A]</t>
   </si>
@@ -85,12 +83,15 @@
   <si>
     <t>P lamp [W]</t>
   </si>
+  <si>
+    <t>R = (Vs - Vlamp)^2/(2*Pwire)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -449,19 +450,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="15.09765625" customWidth="1"/>
-    <col min="2" max="2" width="12.796875" customWidth="1"/>
+    <col min="1" max="1" width="15.125" customWidth="1"/>
+    <col min="2" max="2" width="12.75" customWidth="1"/>
+    <col min="6" max="6" width="23.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -469,7 +471,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -478,7 +480,7 @@
         <v>0.59259259259259256</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -486,7 +488,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -494,7 +496,7 @@
         <v>1.1299999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
@@ -503,7 +505,7 @@
         <v>0.11864999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
@@ -511,7 +513,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
         <v>1</v>
       </c>
@@ -519,8 +521,11 @@
         <f>(((B1-B3)^2)/(2*B6))</f>
         <v>11.390625</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -529,7 +534,7 @@
         <v>18.06319250202295</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>

--- a/energy/Heating_Wires/סיכום/calcul.xlsx
+++ b/energy/Heating_Wires/סיכום/calcul.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nathans\Desktop\Museum_of_Science\energy\Heating_Wires\סיכום\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natou\Documents\GitHub\Museum_of_Science\energy\Heating_Wires\סיכום\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA3DF7E-AFF8-4ACC-BCEC-EC4BF1ABC7B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB10C309-8DA6-467E-96EF-7C9C36787F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ورقة1" sheetId="1" r:id="rId1"/>
+    <sheet name="calcul" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -91,7 +91,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -453,17 +453,17 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.125" customWidth="1"/>
-    <col min="2" max="2" width="12.75" customWidth="1"/>
-    <col min="6" max="6" width="23.75" customWidth="1"/>
+    <col min="1" max="1" width="15.09765625" customWidth="1"/>
+    <col min="2" max="2" width="12.69921875" customWidth="1"/>
+    <col min="6" max="6" width="23.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -471,7 +471,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -480,7 +480,7 @@
         <v>0.59259259259259256</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -488,7 +488,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -496,7 +496,7 @@
         <v>1.1299999999999999E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
@@ -505,7 +505,7 @@
         <v>0.11864999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
@@ -513,7 +513,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>1</v>
       </c>
@@ -525,7 +525,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -534,7 +534,7 @@
         <v>18.06319250202295</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
